--- a/data_xlsx/伦敦现货黄金_以美元计价.xlsx
+++ b/data_xlsx/伦敦现货黄金_以美元计价.xlsx
@@ -27362,8 +27362,88 @@
         <v>1908.8</v>
       </c>
     </row>
+    <row r="3411">
+      <c r="A3411" s="1" t="n">
+        <v>45114.0</v>
+      </c>
+      <c r="B3411" s="2" t="n">
+        <v>1922.3</v>
+      </c>
+    </row>
     <row r="3412">
-      <c r="A3412" s="3" t="inlineStr">
+      <c r="A3412" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B3412" s="2" t="n">
+        <v>1922.8</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B3413" s="2" t="n">
+        <v>1933.95</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3414" s="2" t="n">
+        <v>1953.3</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3415" s="2" t="n">
+        <v>1958.05</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3416" s="2" t="n">
+        <v>1953.7</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3417" s="2" t="n">
+        <v>1949.6</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3418" s="2" t="n">
+        <v>1975.0</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3419" s="2" t="n">
+        <v>1975.35</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3420" s="2" t="n">
+        <v>1976.1</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/伦敦现货黄金_以美元计价.xlsx
+++ b/data_xlsx/伦敦现货黄金_以美元计价.xlsx
@@ -27442,8 +27442,208 @@
         <v>1976.1</v>
       </c>
     </row>
+    <row r="3421">
+      <c r="A3421" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3421" s="2" t="n">
+        <v>1960.6</v>
+      </c>
+    </row>
     <row r="3422">
-      <c r="A3422" s="3" t="inlineStr">
+      <c r="A3422" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3422" s="2" t="n">
+        <v>1960.0</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3423" s="2" t="n">
+        <v>1958.7</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3424" s="2" t="n">
+        <v>1966.3</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3425" s="2" t="n">
+        <v>1945.35</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3426" s="2" t="n">
+        <v>1954.25</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3427" s="2" t="n">
+        <v>1970.65</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3428" s="2" t="n">
+        <v>1947.2</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3429" s="2" t="n">
+        <v>1944.2</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3430" s="2" t="n">
+        <v>1935.65</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B3431" s="2" t="n">
+        <v>1942.45</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B3432" s="2" t="n">
+        <v>1931.7</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B3433" s="2" t="n">
+        <v>1926.4</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B3434" s="2" t="n">
+        <v>1922.75</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B3435" s="2" t="n">
+        <v>1920.9</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B3436" s="2" t="n">
+        <v>1915.8</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B3437" s="2" t="n">
+        <v>1903.75</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B3438" s="2" t="n">
+        <v>1903.85</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B3439" s="2" t="n">
+        <v>1904.2</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B3440" s="2" t="n">
+        <v>1896.35</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B3441" s="2" t="n">
+        <v>1893.7</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B3442" s="2" t="n">
+        <v>1889.85</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B3443" s="2" t="n">
+        <v>1892.75</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B3444" s="2" t="n">
+        <v>1916.65</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B3445" s="2" t="n">
+        <v>1917.05</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
